--- a/tests/testthat/testdata/result_ANOVA.xlsx
+++ b/tests/testthat/testdata/result_ANOVA.xlsx
@@ -575,10 +575,10 @@
         <v>23</v>
       </c>
       <c r="C2" t="n">
+        <v>40866162</v>
+      </c>
+      <c r="D2" t="n">
         <v>34910128</v>
-      </c>
-      <c r="D2" t="e">
-        <v>#N/A</v>
       </c>
       <c r="E2" t="n">
         <v>33763808</v>
@@ -602,31 +602,31 @@
         <v>39887340</v>
       </c>
       <c r="L2" t="n">
-        <v>0.726130274131189</v>
+        <v>0.189475379927987</v>
       </c>
       <c r="M2" t="n">
-        <v>0.806811415701321</v>
-      </c>
-      <c r="N2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O2" t="e">
-        <v>#N/A</v>
+        <v>0.521057294801966</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.20287773784929</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.296429832844544</v>
       </c>
       <c r="P2" t="n">
-        <v>0.726130274131189</v>
+        <v>0.949792502045769</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.830879512485705</v>
+        <v>0.883543583151899</v>
       </c>
       <c r="R2" t="n">
-        <v>1.20354393744569</v>
+        <v>1.13180608072854</v>
       </c>
       <c r="S2" t="n">
-        <v>0.846626098446834</v>
+        <v>0.900288243206019</v>
       </c>
       <c r="T2" t="n">
-        <v>1.18115895769636</v>
+        <v>1.11075536923474</v>
       </c>
       <c r="U2" t="n">
         <v>1.01895170806898</v>
@@ -643,10 +643,10 @@
         <v>25</v>
       </c>
       <c r="C3" t="n">
+        <v>200506080</v>
+      </c>
+      <c r="D3" t="n">
         <v>228724928</v>
-      </c>
-      <c r="D3" t="e">
-        <v>#N/A</v>
       </c>
       <c r="E3" t="n">
         <v>230557560</v>
@@ -670,31 +670,31 @@
         <v>287809476</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0244164028947448</v>
+        <v>0.0201658877478581</v>
       </c>
       <c r="M3" t="n">
-        <v>0.225191224151068</v>
-      </c>
-      <c r="N3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O3" t="e">
-        <v>#N/A</v>
+        <v>0.22182476522644</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.832139145277655</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.0228590793007388</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0244164028947448</v>
+        <v>0.0458911123431448</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.013228129569</v>
+        <v>0.970377859861055</v>
       </c>
       <c r="R3" t="n">
-        <v>0.986944569359093</v>
+        <v>1.03052639735946</v>
       </c>
       <c r="S3" t="n">
-        <v>0.854422884967179</v>
+        <v>0.818288622606085</v>
       </c>
       <c r="T3" t="n">
-        <v>1.1703806365608</v>
+        <v>1.22206269569678</v>
       </c>
       <c r="U3" t="n">
         <v>0.843268026254487</v>
@@ -711,10 +711,10 @@
         <v>27</v>
       </c>
       <c r="C4" t="n">
+        <v>26963010</v>
+      </c>
+      <c r="D4" t="n">
         <v>25142570</v>
-      </c>
-      <c r="D4" t="e">
-        <v>#N/A</v>
       </c>
       <c r="E4" t="n">
         <v>24140170</v>
@@ -738,31 +738,31 @@
         <v>26086670</v>
       </c>
       <c r="L4" t="n">
-        <v>0.491319731890592</v>
+        <v>0.542297691644648</v>
       </c>
       <c r="M4" t="n">
-        <v>0.701885331272274</v>
-      </c>
-      <c r="N4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O4" t="e">
-        <v>#N/A</v>
+        <v>0.718415415341795</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.560789044415445</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.987090744506795</v>
       </c>
       <c r="P4" t="n">
-        <v>0.491319731890592</v>
+        <v>0.646685897327063</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.600767574436792</v>
+        <v>0.619635113478052</v>
       </c>
       <c r="R4" t="n">
-        <v>1.66453723960965</v>
+        <v>1.61385302131594</v>
       </c>
       <c r="S4" t="n">
-        <v>0.924931794451845</v>
+        <v>0.953979944659823</v>
       </c>
       <c r="T4" t="n">
-        <v>1.08116080125956</v>
+        <v>1.04824006583974</v>
       </c>
       <c r="U4" t="n">
         <v>1.53958341596407</v>
@@ -793,8 +793,8 @@
       <c r="G5" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H5" t="e">
-        <v>#N/A</v>
+      <c r="H5" t="n">
+        <v>51412512</v>
       </c>
       <c r="I5" t="e">
         <v>#N/A</v>
@@ -915,10 +915,10 @@
         <v>33</v>
       </c>
       <c r="C7" t="n">
+        <v>21140340</v>
+      </c>
+      <c r="D7" t="n">
         <v>23729240</v>
-      </c>
-      <c r="D7" t="e">
-        <v>#N/A</v>
       </c>
       <c r="E7" t="n">
         <v>22417890</v>
@@ -942,31 +942,31 @@
         <v>22170380</v>
       </c>
       <c r="L7" t="n">
-        <v>0.570666844274274</v>
+        <v>0.810948095071544</v>
       </c>
       <c r="M7" t="n">
-        <v>0.713333555342842</v>
-      </c>
-      <c r="N7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O7" t="e">
-        <v>#N/A</v>
+        <v>0.892042904578699</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.983600942601009</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.890278678396742</v>
       </c>
       <c r="P7" t="n">
-        <v>0.570666844274274</v>
+        <v>0.806011276621718</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.03785828203943</v>
+        <v>1.00887253468027</v>
       </c>
       <c r="R7" t="n">
-        <v>0.963522686387359</v>
+        <v>0.991205494871482</v>
       </c>
       <c r="S7" t="n">
-        <v>1.00425848036413</v>
+        <v>0.976211122551528</v>
       </c>
       <c r="T7" t="n">
-        <v>0.995759577392282</v>
+        <v>1.02436857857785</v>
       </c>
       <c r="U7" t="n">
         <v>0.967625828827732</v>
@@ -983,10 +983,10 @@
         <v>35</v>
       </c>
       <c r="C8" t="n">
+        <v>29319660</v>
+      </c>
+      <c r="D8" t="n">
         <v>36068288</v>
-      </c>
-      <c r="D8" t="e">
-        <v>#N/A</v>
       </c>
       <c r="E8" t="n">
         <v>38500928</v>
@@ -1009,14 +1009,14 @@
       <c r="K8" t="n">
         <v>36233440</v>
       </c>
-      <c r="L8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N8" t="e">
-        <v>#N/A</v>
+      <c r="L8" t="n">
+        <v>0.185574458134091</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.521057294801966</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.185574458134091</v>
       </c>
       <c r="O8" t="e">
         <v>#N/A</v>
@@ -1024,23 +1024,23 @@
       <c r="P8" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Q8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V8" t="e">
-        <v>#N/A</v>
+      <c r="Q8" t="n">
+        <v>0.879108622783973</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.13751585877202</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.943844831357479</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.05949618706049</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.07363846388914</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.931412233851618</v>
       </c>
     </row>
     <row r="9">
@@ -1051,10 +1051,10 @@
         <v>37</v>
       </c>
       <c r="C9" t="n">
+        <v>34100360</v>
+      </c>
+      <c r="D9" t="n">
         <v>37990528</v>
-      </c>
-      <c r="D9" t="e">
-        <v>#N/A</v>
       </c>
       <c r="E9" t="n">
         <v>32654220</v>
@@ -1078,31 +1078,31 @@
         <v>34394968</v>
       </c>
       <c r="L9" t="n">
-        <v>0.925005576772831</v>
+        <v>0.981726057366263</v>
       </c>
       <c r="M9" t="n">
-        <v>0.925005576772831</v>
-      </c>
-      <c r="N9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O9" t="e">
-        <v>#N/A</v>
+        <v>0.981726057366263</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.994654180225996</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.9798818297913</v>
       </c>
       <c r="P9" t="n">
-        <v>0.925005576772831</v>
+        <v>0.995176795604732</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.00542692903801</v>
+        <v>0.993832334789599</v>
       </c>
       <c r="R9" t="n">
-        <v>0.99460236355197</v>
+        <v>1.00620594137914</v>
       </c>
       <c r="S9" t="n">
-        <v>1.00245376544802</v>
+        <v>0.99089345775437</v>
       </c>
       <c r="T9" t="n">
-        <v>0.997552240778985</v>
+        <v>1.0091902334952</v>
       </c>
       <c r="U9" t="n">
         <v>0.99704288446617</v>
@@ -1119,10 +1119,10 @@
         <v>39</v>
       </c>
       <c r="C10" t="n">
+        <v>2663829782</v>
+      </c>
+      <c r="D10" t="n">
         <v>2590670618</v>
-      </c>
-      <c r="D10" t="e">
-        <v>#N/A</v>
       </c>
       <c r="E10" t="n">
         <v>2707158182</v>
@@ -1146,31 +1146,31 @@
         <v>2587524814</v>
       </c>
       <c r="L10" t="n">
-        <v>0.347116046822432</v>
+        <v>0.127775914975779</v>
       </c>
       <c r="M10" t="n">
-        <v>0.701885331272274</v>
-      </c>
-      <c r="N10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O10" t="e">
-        <v>#N/A</v>
+        <v>0.521057294801966</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.111398617213416</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.478315521734763</v>
       </c>
       <c r="P10" t="n">
-        <v>0.347116046822432</v>
+        <v>0.496419426256647</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.06493039599863</v>
+        <v>1.06692918257824</v>
       </c>
       <c r="R10" t="n">
-        <v>0.939028507175115</v>
+        <v>0.937269329894508</v>
       </c>
       <c r="S10" t="n">
-        <v>1.03071624831247</v>
+        <v>1.03265081775687</v>
       </c>
       <c r="T10" t="n">
-        <v>0.970199122830596</v>
+        <v>0.968381550476288</v>
       </c>
       <c r="U10" t="n">
         <v>0.967871939973993</v>
@@ -1186,11 +1186,11 @@
       <c r="B11" t="s">
         <v>41</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D11" t="n">
         <v>1495972</v>
-      </c>
-      <c r="D11" t="e">
-        <v>#N/A</v>
       </c>
       <c r="E11" t="e">
         <v>#N/A</v>
@@ -1217,7 +1217,7 @@
         <v>0.474443964389275</v>
       </c>
       <c r="M11" t="n">
-        <v>0.701885331272274</v>
+        <v>0.718415415341795</v>
       </c>
       <c r="N11" t="e">
         <v>#N/A</v>
@@ -1255,10 +1255,10 @@
         <v>43</v>
       </c>
       <c r="C12" t="n">
+        <v>36614408</v>
+      </c>
+      <c r="D12" t="n">
         <v>52227550</v>
-      </c>
-      <c r="D12" t="e">
-        <v>#N/A</v>
       </c>
       <c r="E12" t="n">
         <v>52181250</v>
@@ -1282,31 +1282,31 @@
         <v>53973140</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0450382448302136</v>
+        <v>0.553929488510475</v>
       </c>
       <c r="M12" t="n">
-        <v>0.225191224151068</v>
-      </c>
-      <c r="N12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O12" t="e">
-        <v>#N/A</v>
+        <v>0.718415415341795</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.90895745541081</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.532037995358854</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0450382448302136</v>
+        <v>0.766443509189862</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.07973150623046</v>
+        <v>0.972250109105049</v>
       </c>
       <c r="R12" t="n">
-        <v>0.926156173298292</v>
+        <v>1.02854192623387</v>
       </c>
       <c r="S12" t="n">
-        <v>1.00643820679858</v>
+        <v>0.906252758876663</v>
       </c>
       <c r="T12" t="n">
-        <v>0.993602978548425</v>
+        <v>1.10344491666932</v>
       </c>
       <c r="U12" t="n">
         <v>0.932118958269764</v>
@@ -1391,10 +1391,10 @@
         <v>47</v>
       </c>
       <c r="C14" t="n">
+        <v>49490460</v>
+      </c>
+      <c r="D14" t="n">
         <v>49514448</v>
-      </c>
-      <c r="D14" t="e">
-        <v>#N/A</v>
       </c>
       <c r="E14" t="n">
         <v>50004128</v>
@@ -1418,31 +1418,31 @@
         <v>43506848</v>
       </c>
       <c r="L14" t="n">
-        <v>0.419218589807043</v>
+        <v>0.509443342858738</v>
       </c>
       <c r="M14" t="n">
-        <v>0.701885331272274</v>
-      </c>
-      <c r="N14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O14" t="e">
-        <v>#N/A</v>
+        <v>0.718415415341795</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.997063924126177</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.588597745217175</v>
       </c>
       <c r="P14" t="n">
-        <v>0.419218589807043</v>
+        <v>0.548478562918217</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.997725836950765</v>
+        <v>0.99592907597021</v>
       </c>
       <c r="R14" t="n">
-        <v>1.00227934665517</v>
+        <v>1.00408756419309</v>
       </c>
       <c r="S14" t="n">
-        <v>1.04742388975689</v>
+        <v>1.04553762971879</v>
       </c>
       <c r="T14" t="n">
-        <v>0.954723307134137</v>
+        <v>0.956445728566421</v>
       </c>
       <c r="U14" t="n">
         <v>1.04981133189656</v>
@@ -1458,11 +1458,11 @@
       <c r="B15" t="s">
         <v>49</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D15" t="n">
         <v>15940000</v>
-      </c>
-      <c r="D15" t="e">
-        <v>#N/A</v>
       </c>
       <c r="E15" t="e">
         <v>#N/A</v>
@@ -1527,10 +1527,10 @@
         <v>51</v>
       </c>
       <c r="C16" t="n">
+        <v>64759632</v>
+      </c>
+      <c r="D16" t="n">
         <v>53367728</v>
-      </c>
-      <c r="D16" t="e">
-        <v>#N/A</v>
       </c>
       <c r="E16" t="n">
         <v>60332520</v>
@@ -1554,31 +1554,31 @@
         <v>62191500</v>
       </c>
       <c r="L16" t="n">
-        <v>0.227983278314776</v>
+        <v>0.587794430734196</v>
       </c>
       <c r="M16" t="n">
-        <v>0.701885331272274</v>
-      </c>
-      <c r="N16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O16" t="e">
-        <v>#N/A</v>
+        <v>0.718415415341795</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.873873701444645</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.560643554844047</v>
       </c>
       <c r="P16" t="n">
-        <v>0.227983278314776</v>
+        <v>0.83689440554514</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.935173364478294</v>
+        <v>0.978543315074051</v>
       </c>
       <c r="R16" t="n">
-        <v>1.06932044686481</v>
+        <v>1.02192716928869</v>
       </c>
       <c r="S16" t="n">
-        <v>0.909495289288623</v>
+        <v>0.95167438384135</v>
       </c>
       <c r="T16" t="n">
-        <v>1.09951091751357</v>
+        <v>1.05077957017566</v>
       </c>
       <c r="U16" t="n">
         <v>0.972541909163553</v>

--- a/tests/testthat/testdata/result_ANOVA.xlsx
+++ b/tests/testthat/testdata/result_ANOVA.xlsx
@@ -80,94 +80,94 @@
     <t xml:space="preserve">FC_state3_divided_by_state2</t>
   </si>
   <si>
-    <t xml:space="preserve">AIIEEYLHLNDMK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0A0J9YUS5/E9PVC5/E9PVC6/E9Q9E1/Q6NZJ6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLAFHDISPQAPTHFLVIPK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B0R1E3/P70349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EGWEYLK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q8R404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSLQDPPNK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O70475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPPPTDPYGRPPPYDR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H3BJ30/H3BJW3/H3BKW0/Q6NVF9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KSQVFSTAADGQTQVEIK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P38647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LQISHEAAACITALR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0A087WPL5/E9QNN1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MLVDDIGDVTITNDGATILK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F2Z483/P11983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QLIVGVNK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D3YZ68/D3Z3I8/P10126/P62631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RGEDMMHPLK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q9QYJ0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPLAQMEEERR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E9Q1G8/E9Q9F5/O55131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TILTLTGVSSLEDVK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q8CHP8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VGEATETALTCLVEK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1ATS4/B1ATS5/E9Q559/O55143/Q64518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WYLTLAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q9CRA4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YAALSDQGLDIK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q9ET54</t>
+    <t xml:space="preserve">AALNALQPPEFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q78T54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESSSHHPGIAEFPSR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P02671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEAHPNDLYVEGLPENIPFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G3UYD0/G3UYJ6/Q3UHU8/Q9ESZ8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPNSVLGR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q8BH64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LQQDIEAVK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q99M74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MELERPGGNEITR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MQEVVANLQYDDGSGMK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q3U1J4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NNKDSHSLTTNIMEILR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NVVIAADGVLK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q9ESL4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QGQDGLLSVK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P57759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QHIEKAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0A087WPR7/A0A087WSP0/E9Q9X1/Q91ZU6/S4R1P5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RLDETPDGRK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q61586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEADIAGHGQEVLIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contaminant_MYG_HORSE/P68082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VGVTVAQTTMEPHLLEACVR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0A0A6YY08/D3Z158/Q8BML9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VVAGVANALAHK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contaminant_HBB_HUMAN/P02042/P68871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YTPLYPFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q9DCU6</t>
   </si>
 </sst>
 </file>
@@ -575,64 +575,64 @@
         <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>40866162</v>
+        <v>82163720</v>
       </c>
       <c r="D2" t="n">
-        <v>34910128</v>
+        <v>81341984</v>
       </c>
       <c r="E2" t="n">
-        <v>33763808</v>
+        <v>68332368</v>
       </c>
       <c r="F2" t="n">
-        <v>41557998</v>
+        <v>80992784</v>
       </c>
       <c r="G2" t="n">
-        <v>43313220</v>
+        <v>76432360</v>
       </c>
       <c r="H2" t="n">
-        <v>39106931</v>
+        <v>68052232</v>
       </c>
       <c r="I2" t="n">
-        <v>43927600</v>
+        <v>83962920</v>
       </c>
       <c r="J2" t="n">
-        <v>37857312</v>
+        <v>73156544</v>
       </c>
       <c r="K2" t="n">
-        <v>39887340</v>
+        <v>66191032</v>
       </c>
       <c r="L2" t="n">
-        <v>0.189475379927987</v>
+        <v>0.899354600456956</v>
       </c>
       <c r="M2" t="n">
-        <v>0.521057294801966</v>
+        <v>0.899354600456956</v>
       </c>
       <c r="N2" t="n">
-        <v>0.20287773784929</v>
+        <v>0.947288337610121</v>
       </c>
       <c r="O2" t="n">
-        <v>0.296429832844544</v>
+        <v>0.894761581647072</v>
       </c>
       <c r="P2" t="n">
-        <v>0.949792502045769</v>
+        <v>0.989490543086587</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.883543583151899</v>
+        <v>1.02820990785346</v>
       </c>
       <c r="R2" t="n">
-        <v>1.13180608072854</v>
+        <v>0.972564057554792</v>
       </c>
       <c r="S2" t="n">
-        <v>0.900288243206019</v>
+        <v>1.03818708100492</v>
       </c>
       <c r="T2" t="n">
-        <v>1.11075536923474</v>
+        <v>0.963217534003646</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01895170806898</v>
+        <v>1.00970344000311</v>
       </c>
       <c r="V2" t="n">
-        <v>0.981400778938876</v>
+        <v>0.990389811880726</v>
       </c>
     </row>
     <row r="3">
@@ -643,64 +643,64 @@
         <v>25</v>
       </c>
       <c r="C3" t="n">
-        <v>200506080</v>
+        <v>3066240866</v>
       </c>
       <c r="D3" t="n">
-        <v>228724928</v>
+        <v>3523696082</v>
       </c>
       <c r="E3" t="n">
-        <v>230557560</v>
+        <v>3536983698</v>
       </c>
       <c r="F3" t="n">
-        <v>228792416</v>
+        <v>1129097258</v>
       </c>
       <c r="G3" t="n">
-        <v>217238016</v>
+        <v>1275470530</v>
       </c>
       <c r="H3" t="n">
-        <v>233899104</v>
+        <v>1287385068</v>
       </c>
       <c r="I3" t="n">
-        <v>248323832</v>
+        <v>269974430</v>
       </c>
       <c r="J3" t="n">
-        <v>270169688</v>
+        <v>275690698</v>
       </c>
       <c r="K3" t="n">
-        <v>287809476</v>
+        <v>307915444</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0201658877478581</v>
+        <v>0.00000004847844548672</v>
       </c>
       <c r="M3" t="n">
-        <v>0.22182476522644</v>
+        <v>0.00000014543533646016</v>
       </c>
       <c r="N3" t="n">
-        <v>0.832139145277655</v>
+        <v>0.00000757107099702559</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0228590793007388</v>
+        <v>0.0000000479487842763859</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0458911123431448</v>
+        <v>0.00000103556484565281</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.970377859861055</v>
+        <v>2.74297127861267</v>
       </c>
       <c r="R3" t="n">
-        <v>1.03052639735946</v>
+        <v>0.364568162925052</v>
       </c>
       <c r="S3" t="n">
-        <v>0.818288622606085</v>
+        <v>11.8640477281154</v>
       </c>
       <c r="T3" t="n">
-        <v>1.22206269569678</v>
+        <v>0.0842882650943999</v>
       </c>
       <c r="U3" t="n">
-        <v>0.843268026254487</v>
+        <v>4.32525408509414</v>
       </c>
       <c r="V3" t="n">
-        <v>1.18586258326628</v>
+        <v>0.23120029027803</v>
       </c>
     </row>
     <row r="4">
@@ -710,65 +710,65 @@
       <c r="B4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="n">
-        <v>26963010</v>
-      </c>
-      <c r="D4" t="n">
-        <v>25142570</v>
+      <c r="C4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D4" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E4" t="n">
-        <v>24140170</v>
+        <v>18573680</v>
       </c>
       <c r="F4" t="n">
-        <v>22372790</v>
-      </c>
-      <c r="G4" t="n">
-        <v>26638020</v>
+        <v>14150710</v>
+      </c>
+      <c r="G4" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H4" t="n">
-        <v>74038624</v>
+        <v>13375460</v>
       </c>
       <c r="I4" t="n">
-        <v>28297470</v>
+        <v>5482574</v>
       </c>
       <c r="J4" t="n">
-        <v>25539710</v>
+        <v>21029880</v>
       </c>
       <c r="K4" t="n">
-        <v>26086670</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.542297691644648</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.718415415341795</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.560789044415445</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.987090744506795</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.646685897327063</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.619635113478052</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.61385302131594</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.953979944659823</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.04824006583974</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.53958341596407</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.649526352148844</v>
+        <v>22224090</v>
+      </c>
+      <c r="L4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V4" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="5">
@@ -778,65 +778,65 @@
       <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G5" t="e">
-        <v>#N/A</v>
+      <c r="C5" t="n">
+        <v>30212320</v>
+      </c>
+      <c r="D5" t="n">
+        <v>28272400</v>
+      </c>
+      <c r="E5" t="n">
+        <v>30878930</v>
+      </c>
+      <c r="F5" t="n">
+        <v>29156000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>30156110</v>
       </c>
       <c r="H5" t="n">
-        <v>51412512</v>
-      </c>
-      <c r="I5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V5" t="e">
-        <v>#N/A</v>
+        <v>27431330</v>
+      </c>
+      <c r="I5" t="n">
+        <v>32019650</v>
+      </c>
+      <c r="J5" t="n">
+        <v>26907300</v>
+      </c>
+      <c r="K5" t="n">
+        <v>32356150</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.716468972270608</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.781602515204299</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.867433637181541</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.946269591936072</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.698516279682216</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.03020643405426</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.970679241503677</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.978972558995037</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.02147909133076</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.950268341018216</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.05233433214085</v>
       </c>
     </row>
     <row r="6">
@@ -846,65 +846,65 @@
       <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D6" t="e">
-        <v>#N/A</v>
+      <c r="C6" t="n">
+        <v>481943616</v>
+      </c>
+      <c r="D6" t="n">
+        <v>421780896</v>
       </c>
       <c r="E6" t="n">
-        <v>26402860</v>
-      </c>
-      <c r="F6" t="e">
-        <v>#N/A</v>
+        <v>462450400</v>
+      </c>
+      <c r="F6" t="n">
+        <v>469830208</v>
       </c>
       <c r="G6" t="n">
-        <v>26541960</v>
-      </c>
-      <c r="H6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J6" t="e">
-        <v>#N/A</v>
+        <v>428080992</v>
+      </c>
+      <c r="H6" t="n">
+        <v>444448608</v>
+      </c>
+      <c r="I6" t="n">
+        <v>495238112</v>
+      </c>
+      <c r="J6" t="n">
+        <v>492429696</v>
       </c>
       <c r="K6" t="n">
-        <v>8003230</v>
-      </c>
-      <c r="L6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V6" t="e">
-        <v>#N/A</v>
+        <v>443624992</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.449920233158466</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.539904279790159</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.93744141610786</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.625448601423993</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.442858884917565</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.01774122247856</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.982568041770627</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.95450414618169</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.04766438574448</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.937865269775688</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.06625123269483</v>
       </c>
     </row>
     <row r="7">
@@ -912,111 +912,111 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>21140340</v>
+        <v>7278700264</v>
       </c>
       <c r="D7" t="n">
-        <v>23729240</v>
+        <v>7485191088</v>
       </c>
       <c r="E7" t="n">
-        <v>22417890</v>
+        <v>7681951140</v>
       </c>
       <c r="F7" t="n">
-        <v>22312750</v>
+        <v>2792816656</v>
       </c>
       <c r="G7" t="n">
-        <v>20940040</v>
+        <v>2748498968</v>
       </c>
       <c r="H7" t="n">
-        <v>23442920</v>
+        <v>2506603733</v>
       </c>
       <c r="I7" t="n">
-        <v>21875310</v>
+        <v>584325716</v>
       </c>
       <c r="J7" t="n">
-        <v>24881480</v>
+        <v>607947752</v>
       </c>
       <c r="K7" t="n">
-        <v>22170380</v>
+        <v>526558895</v>
       </c>
       <c r="L7" t="n">
-        <v>0.810948095071544</v>
+        <v>0.00000000702834765231443</v>
       </c>
       <c r="M7" t="n">
-        <v>0.892042904578699</v>
+        <v>0.0000000281133906092577</v>
       </c>
       <c r="N7" t="n">
-        <v>0.983600942601009</v>
+        <v>0.00000140712392493469</v>
       </c>
       <c r="O7" t="n">
-        <v>0.890278678396742</v>
+        <v>0.000000000790107312909072</v>
       </c>
       <c r="P7" t="n">
-        <v>0.806011276621718</v>
+        <v>0.000000203501687279228</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.00887253468027</v>
+        <v>2.78902428022925</v>
       </c>
       <c r="R7" t="n">
-        <v>0.991205494871482</v>
+        <v>0.358548330715071</v>
       </c>
       <c r="S7" t="n">
-        <v>0.976211122551528</v>
+        <v>13.0587734878483</v>
       </c>
       <c r="T7" t="n">
-        <v>1.02436857857785</v>
+        <v>0.0765768700200322</v>
       </c>
       <c r="U7" t="n">
-        <v>0.967625828827732</v>
+        <v>4.68220143525422</v>
       </c>
       <c r="V7" t="n">
-        <v>1.03345732431666</v>
+        <v>0.213574749789829</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
       <c r="C8" t="n">
-        <v>29319660</v>
+        <v>4588955</v>
       </c>
       <c r="D8" t="n">
-        <v>36068288</v>
-      </c>
-      <c r="E8" t="n">
-        <v>38500928</v>
-      </c>
-      <c r="F8" t="n">
-        <v>37816312</v>
+        <v>5071469</v>
+      </c>
+      <c r="E8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F8" t="e">
+        <v>#N/A</v>
       </c>
       <c r="G8" t="n">
-        <v>40211580</v>
+        <v>5065608</v>
       </c>
       <c r="H8" t="n">
-        <v>40147352</v>
-      </c>
-      <c r="I8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J8" t="n">
-        <v>37146472</v>
+        <v>6596751</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4729147</v>
+      </c>
+      <c r="J8" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K8" t="n">
-        <v>36233440</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.185574458134091</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.521057294801966</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.185574458134091</v>
+        <v>4608781</v>
+      </c>
+      <c r="L8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N8" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O8" t="e">
         <v>#N/A</v>
@@ -1024,339 +1024,339 @@
       <c r="P8" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Q8" t="n">
-        <v>0.879108622783973</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.13751585877202</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.943844831357479</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.05949618706049</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.07363846388914</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.931412233851618</v>
+      <c r="Q8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V8" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C9" t="n">
-        <v>34100360</v>
+        <v>547595080</v>
       </c>
       <c r="D9" t="n">
-        <v>37990528</v>
+        <v>631643705</v>
       </c>
       <c r="E9" t="n">
-        <v>32654220</v>
+        <v>587369272</v>
       </c>
       <c r="F9" t="n">
-        <v>33514620</v>
+        <v>85853120</v>
       </c>
       <c r="G9" t="n">
-        <v>38775700</v>
+        <v>276854236</v>
       </c>
       <c r="H9" t="n">
-        <v>33104830</v>
+        <v>250760174</v>
       </c>
       <c r="I9" t="n">
-        <v>36297352</v>
+        <v>21164574</v>
       </c>
       <c r="J9" t="n">
-        <v>35015420</v>
+        <v>49103103</v>
       </c>
       <c r="K9" t="n">
-        <v>34394968</v>
+        <v>38820223</v>
       </c>
       <c r="L9" t="n">
-        <v>0.981726057366263</v>
+        <v>0.00076399407961886</v>
       </c>
       <c r="M9" t="n">
-        <v>0.981726057366263</v>
+        <v>0.00183358579108526</v>
       </c>
       <c r="N9" t="n">
-        <v>0.994654180225996</v>
+        <v>0.043540771112822</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9798818297913</v>
+        <v>0.000622193929494141</v>
       </c>
       <c r="P9" t="n">
-        <v>0.995176795604732</v>
+        <v>0.00972230367986116</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.993832334789599</v>
+        <v>2.87970914613851</v>
       </c>
       <c r="R9" t="n">
-        <v>1.00620594137914</v>
+        <v>0.347257292057058</v>
       </c>
       <c r="S9" t="n">
-        <v>0.99089345775437</v>
+        <v>16.194353883428</v>
       </c>
       <c r="T9" t="n">
-        <v>1.0091902334952</v>
+        <v>0.0617499164954844</v>
       </c>
       <c r="U9" t="n">
-        <v>0.99704288446617</v>
+        <v>5.62360747617289</v>
       </c>
       <c r="V9" t="n">
-        <v>1.0029658860014</v>
+        <v>0.177821799305336</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" t="n">
-        <v>2663829782</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2590670618</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2707158182</v>
+        <v>28040580</v>
+      </c>
+      <c r="D10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E10" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F10" t="n">
-        <v>2511590350</v>
+        <v>27419040</v>
       </c>
       <c r="G10" t="n">
-        <v>2452957074</v>
+        <v>25857140</v>
       </c>
       <c r="H10" t="n">
-        <v>2497670980</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2688946322</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2433452146</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2587524814</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.127775914975779</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.521057294801966</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.111398617213416</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.478315521734763</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.496419426256647</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.06692918257824</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.937269329894508</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.03265081775687</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.968381550476288</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0.967871939973993</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.03319453607351</v>
+        <v>28986300</v>
+      </c>
+      <c r="I10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V10" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="e">
-        <v>#N/A</v>
+        <v>39</v>
+      </c>
+      <c r="C11" t="n">
+        <v>32303910</v>
       </c>
       <c r="D11" t="n">
-        <v>1495972</v>
-      </c>
-      <c r="E11" t="e">
-        <v>#N/A</v>
+        <v>34463860</v>
+      </c>
+      <c r="E11" t="n">
+        <v>26115270</v>
       </c>
       <c r="F11" t="n">
-        <v>1488327</v>
+        <v>33808552</v>
       </c>
       <c r="G11" t="n">
-        <v>2110030</v>
+        <v>33915592</v>
       </c>
       <c r="H11" t="n">
-        <v>1490940</v>
+        <v>32038310</v>
       </c>
       <c r="I11" t="n">
-        <v>2999273</v>
+        <v>37660152</v>
       </c>
       <c r="J11" t="n">
-        <v>1238563</v>
+        <v>32213920</v>
       </c>
       <c r="K11" t="n">
-        <v>2531858</v>
+        <v>38106072</v>
       </c>
       <c r="L11" t="n">
-        <v>0.474443964389275</v>
+        <v>0.253307292015809</v>
       </c>
       <c r="M11" t="n">
-        <v>0.718415415341795</v>
-      </c>
-      <c r="N11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O11" t="e">
-        <v>#N/A</v>
+        <v>0.337743056021079</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.636583003973247</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.22822326402739</v>
       </c>
       <c r="P11" t="n">
-        <v>0.474443964389275</v>
+        <v>0.645812681941753</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.881834170809839</v>
+        <v>0.931042053155589</v>
       </c>
       <c r="R11" t="n">
-        <v>1.13400005704207</v>
+        <v>1.0740653406693</v>
       </c>
       <c r="S11" t="n">
-        <v>0.662942224567315</v>
+        <v>0.86018629499142</v>
       </c>
       <c r="T11" t="n">
-        <v>1.50842707394702</v>
+        <v>1.16253886608363</v>
       </c>
       <c r="U11" t="n">
-        <v>0.751776520474929</v>
+        <v>0.923896285969021</v>
       </c>
       <c r="V11" t="n">
-        <v>1.33018253798118</v>
+        <v>1.08237257275167</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" t="n">
-        <v>36614408</v>
+        <v>18786430</v>
       </c>
       <c r="D12" t="n">
-        <v>52227550</v>
+        <v>30472710</v>
       </c>
       <c r="E12" t="n">
-        <v>52181250</v>
+        <v>25962860</v>
       </c>
       <c r="F12" t="n">
-        <v>47326970</v>
+        <v>5528899</v>
       </c>
       <c r="G12" t="n">
-        <v>48179732</v>
+        <v>9171085</v>
       </c>
       <c r="H12" t="n">
-        <v>49541580</v>
-      </c>
-      <c r="I12" t="n">
-        <v>51120782</v>
-      </c>
-      <c r="J12" t="n">
-        <v>50517420</v>
-      </c>
-      <c r="K12" t="n">
-        <v>53973140</v>
+        <v>11303680</v>
+      </c>
+      <c r="I12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K12" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L12" t="n">
-        <v>0.553929488510475</v>
+        <v>0.0131969532281292</v>
       </c>
       <c r="M12" t="n">
-        <v>0.718415415341795</v>
+        <v>0.0197954298421938</v>
       </c>
       <c r="N12" t="n">
-        <v>0.90895745541081</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.532037995358854</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.766443509189862</v>
+        <v>0.0131969532281292</v>
+      </c>
+      <c r="O12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P12" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.972250109105049</v>
+        <v>2.89274619145979</v>
       </c>
       <c r="R12" t="n">
-        <v>1.02854192623387</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.906252758876663</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.10344491666932</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0.932118958269764</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.07282444062316</v>
+        <v>0.3456922708782</v>
+      </c>
+      <c r="S12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="T12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="U12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="V12" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D13" t="e">
-        <v>#N/A</v>
+        <v>43</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9321790</v>
+      </c>
+      <c r="D13" t="n">
+        <v>14572240</v>
       </c>
       <c r="E13" t="n">
-        <v>5683145</v>
+        <v>17078710</v>
       </c>
       <c r="F13" t="n">
-        <v>9846832</v>
-      </c>
-      <c r="G13" t="e">
-        <v>#N/A</v>
+        <v>2652279</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4551373</v>
       </c>
       <c r="H13" t="n">
-        <v>8586830</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9622588</v>
+        <v>4976687</v>
+      </c>
+      <c r="I13" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J13" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K13" t="n">
-        <v>8344295</v>
-      </c>
-      <c r="L13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N13" t="e">
-        <v>#N/A</v>
+      <c r="K13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.0103814732898419</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0177968113540146</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.0103814732898419</v>
       </c>
       <c r="O13" t="e">
         <v>#N/A</v>
@@ -1364,126 +1364,126 @@
       <c r="P13" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Q13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R13" t="e">
-        <v>#N/A</v>
+      <c r="Q13" t="n">
+        <v>3.36384233640788</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.297279093367932</v>
       </c>
       <c r="S13" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="T13" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="U13" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="V13" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14" t="n">
-        <v>49490460</v>
+        <v>300837422</v>
       </c>
       <c r="D14" t="n">
-        <v>49514448</v>
+        <v>314460372</v>
       </c>
       <c r="E14" t="n">
-        <v>50004128</v>
+        <v>303712450</v>
       </c>
       <c r="F14" t="n">
-        <v>51948072</v>
+        <v>49711832</v>
       </c>
       <c r="G14" t="n">
-        <v>50367920</v>
+        <v>50550568</v>
       </c>
       <c r="H14" t="n">
-        <v>47302128</v>
+        <v>50666080</v>
       </c>
       <c r="I14" t="n">
-        <v>51466928</v>
+        <v>892094496</v>
       </c>
       <c r="J14" t="n">
-        <v>47545280</v>
+        <v>946487880</v>
       </c>
       <c r="K14" t="n">
-        <v>43506848</v>
+        <v>911313768</v>
       </c>
       <c r="L14" t="n">
-        <v>0.509443342858738</v>
+        <v>0.0000000000139077247897986</v>
       </c>
       <c r="M14" t="n">
-        <v>0.718415415341795</v>
+        <v>0.000000000166892697477583</v>
       </c>
       <c r="N14" t="n">
-        <v>0.997063924126177</v>
+        <v>0.000000000000064170890823334</v>
       </c>
       <c r="O14" t="n">
-        <v>0.588597745217175</v>
+        <v>0.000000000258606913661197</v>
       </c>
       <c r="P14" t="n">
-        <v>0.548478562918217</v>
+        <v>0.000000000000064170890823334</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.99592907597021</v>
+        <v>6.08904458588598</v>
       </c>
       <c r="R14" t="n">
-        <v>1.00408756419309</v>
+        <v>0.164229377186355</v>
       </c>
       <c r="S14" t="n">
-        <v>1.04553762971879</v>
+        <v>0.334198164539846</v>
       </c>
       <c r="T14" t="n">
-        <v>0.956445728566421</v>
+        <v>2.99223666107469</v>
       </c>
       <c r="U14" t="n">
-        <v>1.04981133189656</v>
+        <v>0.0548851564192018</v>
       </c>
       <c r="V14" t="n">
-        <v>0.952552110666809</v>
+        <v>18.2198624408064</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" t="e">
-        <v>#N/A</v>
+        <v>47</v>
+      </c>
+      <c r="C15" t="n">
+        <v>17041190</v>
       </c>
       <c r="D15" t="n">
-        <v>15940000</v>
+        <v>20160540</v>
       </c>
       <c r="E15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F15" t="e">
-        <v>#N/A</v>
+      <c r="F15" t="n">
+        <v>19386160</v>
       </c>
       <c r="G15" t="n">
-        <v>6838328</v>
+        <v>20495910</v>
       </c>
       <c r="H15" t="n">
-        <v>13688880</v>
-      </c>
-      <c r="I15" t="e">
-        <v>#N/A</v>
+        <v>19678080</v>
+      </c>
+      <c r="I15" t="n">
+        <v>18992590</v>
       </c>
       <c r="J15" t="e">
         <v>#N/A</v>
       </c>
       <c r="K15" t="n">
-        <v>13158910</v>
+        <v>18714460</v>
       </c>
       <c r="L15" t="e">
         <v>#N/A</v>
@@ -1521,70 +1521,138 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="n">
+        <v>188298915</v>
+      </c>
+      <c r="D16" t="n">
+        <v>160929378</v>
+      </c>
+      <c r="E16" t="n">
+        <v>158430322</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2202540366</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2367397848</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2279021515</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5044071125</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4960067196</v>
+      </c>
+      <c r="K16" t="n">
+        <v>5332594348</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.00000000192013988422698</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.0000000115208393053619</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.00000000328965543694437</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.0000000000201576533243042</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.0000100283232866705</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.0741220032073575</v>
+      </c>
+      <c r="R16" t="n">
+        <v>13.4912705637823</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.0331008322278529</v>
+      </c>
+      <c r="T16" t="n">
+        <v>30.2107207793568</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.446572283472329</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.23927914250407</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
         <v>50</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>51</v>
       </c>
-      <c r="C16" t="n">
-        <v>64759632</v>
-      </c>
-      <c r="D16" t="n">
-        <v>53367728</v>
-      </c>
-      <c r="E16" t="n">
-        <v>60332520</v>
-      </c>
-      <c r="F16" t="n">
-        <v>58853440</v>
-      </c>
-      <c r="G16" t="n">
-        <v>62984728</v>
-      </c>
-      <c r="H16" t="n">
-        <v>60534832</v>
-      </c>
-      <c r="I16" t="n">
-        <v>62698688</v>
-      </c>
-      <c r="J16" t="n">
-        <v>62631808</v>
-      </c>
-      <c r="K16" t="n">
-        <v>62191500</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.587794430734196</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.718415415341795</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.873873701444645</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.560643554844047</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.83689440554514</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.978543315074051</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.02192716928869</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0.95167438384135</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.05077957017566</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0.972541909163553</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.02823332401178</v>
+      <c r="C17" t="n">
+        <v>6602400</v>
+      </c>
+      <c r="D17" t="n">
+        <v>8191120</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6974100</v>
+      </c>
+      <c r="F17" t="n">
+        <v>19808180</v>
+      </c>
+      <c r="G17" t="n">
+        <v>20498483</v>
+      </c>
+      <c r="H17" t="n">
+        <v>12605540</v>
+      </c>
+      <c r="I17" t="n">
+        <v>21869897</v>
+      </c>
+      <c r="J17" t="n">
+        <v>14850900</v>
+      </c>
+      <c r="K17" t="n">
+        <v>12191280</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.00827252656225542</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.0165450531245108</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0106848236017624</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.017132857052835</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.902824815607511</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.411391300415142</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.43077575775395</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.44503569128745</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.24701078942025</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.0817819697168</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.924400690706452</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testthat/testdata/result_ANOVA.xlsx
+++ b/tests/testthat/testdata/result_ANOVA.xlsx
@@ -95,7 +95,7 @@
     <t xml:space="preserve">FEAHPNDLYVEGLPENIPFR</t>
   </si>
   <si>
-    <t xml:space="preserve">G3UYD0/G3UYJ6/Q3UHU8/Q9ESZ8</t>
+    <t xml:space="preserve">G3UYD0/G3UYJ6/Q3UHU8</t>
   </si>
   <si>
     <t xml:space="preserve">LPNSVLGR</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">QHIEKAK</t>
   </si>
   <si>
-    <t xml:space="preserve">A0A087WPR7/A0A087WSP0/E9Q9X1/Q91ZU6/S4R1P5</t>
+    <t xml:space="preserve">A0A087WPR7/A0A087WSP0/E9Q9X1</t>
   </si>
   <si>
     <t xml:space="preserve">RLDETPDGRK</t>
@@ -161,7 +161,7 @@
     <t xml:space="preserve">VVAGVANALAHK</t>
   </si>
   <si>
-    <t xml:space="preserve">contaminant_HBB_HUMAN/P02042/P68871</t>
+    <t xml:space="preserve">contaminant_HBB_HUMAN/P02042</t>
   </si>
   <si>
     <t xml:space="preserve">YTPLYPFR</t>
